--- a/Energy community management/ECM2-res.xlsx
+++ b/Energy community management/ECM2-res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbirk\Documents\Programmierung\MG_Flex_Market\Energy community management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saber/Documents/GitHub/Energy community management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F90BD4-FB45-4570-B8E5-AC0712D82E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A047F7-BC9D-0A4D-AB06-688E82B84C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32770" yWindow="32770" windowWidth="19170" windowHeight="9090" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P_EC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,19 @@
     <sheet name="q_res_up" sheetId="5" r:id="rId5"/>
     <sheet name="q_res_dn" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,19 +429,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +454,7 @@
         <v>0.55823820220119036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +465,7 @@
         <v>0.50583839974751887</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +476,7 @@
         <v>0.45236720833813471</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +487,7 @@
         <v>0.44942830905006576</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +498,7 @@
         <v>0.45105200118425592</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +509,7 @@
         <v>0.45897584656476537</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +520,7 @@
         <v>0.4891023800475261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +531,7 @@
         <v>0.50382272727226352</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +542,7 @@
         <v>0.54828705066271455</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +553,7 @@
         <v>0.58384623025608884</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +564,7 @@
         <v>0.58385929179912621</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +575,7 @@
         <v>-0.39111468325976806</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +586,7 @@
         <v>0.61300819199580858</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +597,7 @@
         <v>0.20092482885111723</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +608,7 @@
         <v>0.54924195681111621</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +619,7 @@
         <v>0.55182151556063375</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +630,7 @@
         <v>0.55771311491187225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +641,7 @@
         <v>5.2542067534548549E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +652,7 @@
         <v>-0.71046277951900705</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +663,7 @@
         <v>-0.77410798715785567</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +674,7 @@
         <v>-0.75230164560042467</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +685,7 @@
         <v>-0.68857478313427722</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +696,7 @@
         <v>0.52600376016321837</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,17 +718,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +739,7 @@
         <v>0.13546733698597466</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +750,7 @@
         <v>0.12329679436824691</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +761,7 @@
         <v>0.11500715060009384</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +772,7 @@
         <v>0.11178325396148635</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +783,7 @@
         <v>0.11247165995676585</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +794,7 @@
         <v>0.11695848642130367</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +805,7 @@
         <v>0.12529135062165969</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +816,7 @@
         <v>0.13178850064818656</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +827,7 @@
         <v>0.15163985531085547</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +838,7 @@
         <v>0.16558593069122649</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +849,7 @@
         <v>0.16848219257812844</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +860,7 @@
         <v>0.40610180768649606</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +871,7 @@
         <v>0.17579450394297694</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +882,7 @@
         <v>3.6928484259684188E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +893,7 @@
         <v>0.15890377549541779</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +904,7 @@
         <v>0.15465659921932912</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +915,7 @@
         <v>0.15658802932676302</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +926,7 @@
         <v>1.194565943617495E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +937,7 @@
         <v>0.74755341197632086</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +948,7 @@
         <v>0.81625521124616374</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +959,7 @@
         <v>0.79271636274417845</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +970,7 @@
         <v>0.72392642119681583</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +981,7 @@
         <v>0.13637599965296576</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,21 +1001,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,42 +1023,42 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7391304347835757E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.8244038234713265E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.0695001852013561E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.0009805381354662E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0847494089952836E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,10 +1082,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.7130434782609569E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,10 +1093,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0486956521739144E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.7783138806445402E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,10 +1104,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.8521739130434867E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0561058461502459E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.2347826086956504E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.9552915567656655E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,10 +1126,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.3460869565217424E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4568012255527655E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.191304347826134E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0384284613190464E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,10 +1156,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.7194390542544458E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.8503027053585095E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,10 +1167,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3356521739130378E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.3911677410690326E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,10 +1178,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.4991304347826149E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4197203530012192E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.2695652173913223E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,10 +1200,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.2608695652172051E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,10 +1211,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.4782608695650419E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,10 +1222,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.2608695652173929E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,10 +1233,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.8806916221789676E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.0728491205475106E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.7913043478260735E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1254,20 +1268,20 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.3702371344278854E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.7391304347813552E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.73988681369652E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.6770488646375752E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.193743453633425E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.5143664398562322E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,10 +1344,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.6966682393960971E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.016318081122445E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,10 +1366,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.1664844741317911E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.7130434782606794E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6.1969494106729972E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0486956521738811E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,10 +1388,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.580032121548667E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.8521739130434756E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.0617748331137615E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.2347826086956504E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.7328006044283251E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.3460869565217424E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,10 +1421,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1017552348069593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.8568885994598565E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.1913043478261063E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,10 +1443,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.8373438975678213E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.6943043478260922E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,10 +1454,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.1761325848143774E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.3356521739130489E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,10 +1465,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.4758255220988298E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4991304347826149E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,42 +1476,42 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.9689475920674754E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.2695652173913639E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.2608695652174271E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.4782608695651529E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.2608695652173818E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4816673525202217E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,10 +1519,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.8511188107345652E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.6130578083035094E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.3640613716548852E-2</v>
+        <v>2.0419002843501788E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1532,17 +1546,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1591,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1600,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1609,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1618,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1627,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1636,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1661,7 @@
         <v>3.3035252432934148E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1655,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1664,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1673,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1682,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1691,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1700,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>5.7185511296707014E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>5.3552351762751416E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>5.4797157470348967E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1758,7 @@
         <v>5.8434978235295976E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -1753,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1771,21 +1785,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>9.085386626359826E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>7.8244038234710489E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>7.344621961351494E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1843,7 @@
         <v>1.922719668570233E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1854,7 @@
         <v>8.5886281835807488E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>9.7783138806445402E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>1.0561058461502459E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>8.9552915567655544E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>2.4568012255527516E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1941,7 @@
         <v>1.0384284613190131E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>2.8503027053584984E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>2.0486242992823755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>1.4197203530012525E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1976,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
